--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_FileManagement.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_FileManagement.xlsx
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_FileManagement.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_FileManagement.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Connect Device with WIFI</t>
-  </si>
-  <si>
-    <t>Controls And Appearance -JS</t>
   </si>
   <si>
     <t>Change Start page</t>
@@ -372,60 +369,12 @@
 validate4;</t>
   </si>
   <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1041_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(10);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1042_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(15);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1043_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(10);
-validate4;</t>
-  </si>
-  <si>
     <t>.
 FTP Server to Device-large file(4mb)</t>
   </si>
   <si>
     <t>.
 Device to FTP-large file(4mb)</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1044_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(15);
-validate4;</t>
   </si>
   <si>
     <t>.
@@ -886,6 +835,57 @@
 {
 validate_Result_notDisplayed=false
 };</t>
+  </si>
+  <si>
+    <t>PB-FileManagement</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1041_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(60);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1042_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(60);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1043_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(60);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1044_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(60);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1374,9 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1430,19 +1428,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1458,23 +1456,21 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1487,23 +1483,21 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1516,23 +1510,21 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1545,23 +1537,21 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="14"/>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1574,23 +1564,21 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="14"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1603,23 +1591,21 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1632,23 +1618,21 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="14"/>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="H9" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1661,23 +1645,21 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="14"/>
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1690,23 +1672,21 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="14"/>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1719,23 +1699,21 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="14"/>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1748,23 +1726,21 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1777,23 +1753,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1806,23 +1780,21 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1835,23 +1807,21 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C16" s="14"/>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1864,23 +1834,21 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C17" s="14"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1893,23 +1861,21 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C18" s="14"/>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1922,23 +1888,21 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C19" s="14"/>
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1951,23 +1915,21 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C20" s="14"/>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="H20" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1980,23 +1942,21 @@
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="14"/>
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2009,23 +1969,21 @@
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="14"/>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2038,23 +1996,21 @@
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C23" s="14"/>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2067,23 +2023,21 @@
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C24" s="14"/>
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2096,23 +2050,21 @@
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C25" s="14"/>
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2125,23 +2077,21 @@
       <c r="B26" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
+      <c r="C26" s="14"/>
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_FileManagement.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_FileManagement.xlsx
@@ -845,46 +845,46 @@
 link_Click(filemanagement_test_link);
 wait(2);
 validate2;
+SelectTestToRun(VT056_1044_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(100);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1043_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(100);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
+SelectTestToRun(VT056_1042_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+wait(100);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(2);
+validate1;
+link_Click(filemanagement_test_link);
+wait(2);
+validate2;
 SelectTestToRun(VT056_1041_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
-wait(60);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1042_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(60);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1043_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(60);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(2);
-validate1;
-link_Click(filemanagement_test_link);
-wait(2);
-validate2;
-SelectTestToRun(VT056_1044_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-wait(60);
+wait(100);
 validate4;</t>
   </si>
 </sst>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>76</v>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>77</v>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>78</v>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>79</v>
